--- a/SystemMailTrackingProduction/Files/SystemEmails_Prod.xlsx
+++ b/SystemMailTrackingProduction/Files/SystemEmails_Prod.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F01DD2B-B2E2-41BB-A4F9-79A052CCD0E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B117DF4-C623-499E-886C-91F3A956CD3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -130,9 +130,6 @@
     <t>9658820667</t>
   </si>
   <si>
-    <t>MailinatorUrl</t>
-  </si>
-  <si>
     <t>Open the broswer</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>VerifyBroadcastEmailFromInbox</t>
   </si>
   <si>
-    <t>automationcontact1@mailinator.com</t>
-  </si>
-  <si>
     <t>xponoacc@gmail.com</t>
   </si>
   <si>
@@ -263,6 +257,45 @@
   </si>
   <si>
     <t>Rfsupporttest@mailinator.com</t>
+  </si>
+  <si>
+    <t>deleteTrialuser</t>
+  </si>
+  <si>
+    <t>Verify recently added trial user is deleted.</t>
+  </si>
+  <si>
+    <t>deleteTrialuserTest</t>
+  </si>
+  <si>
+    <t>waitForPageToLoad</t>
+  </si>
+  <si>
+    <t>Login to Application</t>
+  </si>
+  <si>
+    <t>mbraido@digitalassetsinc.com</t>
+  </si>
+  <si>
+    <t>rapid1234*</t>
+  </si>
+  <si>
+    <t>RFAdminlogin</t>
+  </si>
+  <si>
+    <t>RFUrl</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Test Production ABC's</t>
+  </si>
+  <si>
+    <t>exponoacc@gmail.com</t>
+  </si>
+  <si>
+    <t>rf123456!</t>
   </si>
 </sst>
 </file>
@@ -299,7 +332,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +381,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -383,6 +422,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -391,7 +443,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,6 +477,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -764,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +844,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -794,7 +852,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -802,7 +860,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -810,7 +868,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>2</v>
@@ -818,9 +876,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -831,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,10 +931,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>8</v>
@@ -880,10 +946,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>9</v>
@@ -895,36 +961,36 @@
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
@@ -936,28 +1002,28 @@
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -971,10 +1037,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -986,10 +1052,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1001,36 +1067,36 @@
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1042,28 +1108,28 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1077,10 +1143,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>8</v>
@@ -1092,10 +1158,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>9</v>
@@ -1107,36 +1173,36 @@
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>8</v>
@@ -1148,28 +1214,28 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1183,10 +1249,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>8</v>
@@ -1198,10 +1264,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>9</v>
@@ -1213,26 +1279,26 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -1246,10 +1312,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>8</v>
@@ -1261,10 +1327,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>9</v>
@@ -1276,36 +1342,36 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>8</v>
@@ -1317,28 +1383,28 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
@@ -1349,6 +1415,82 @@
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,13 +1518,13 @@
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="15" max="15" width="32.77734375" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1429,7 +1571,10 @@
         <v>23</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="Q2" s="15"/>
     </row>
@@ -1450,7 +1595,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>27</v>
@@ -1477,9 +1622,11 @@
         <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1492,7 +1639,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,6 +1658,9 @@
       <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1520,18 +1670,21 @@
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
+      <c r="F7" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1704,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1562,21 +1715,21 @@
         <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1594,22 +1747,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,22 +1773,22 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,7 +1803,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1684,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1692,17 +1845,69 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{41AEDECE-D084-4B81-9333-11A959D29D76}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{401F4866-FA46-41A4-B14C-9CB6F53E91FA}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{DB0AA7E2-1CA4-4AAA-A9C9-8FF10B5F4826}"/>
-    <hyperlink ref="G15" r:id="rId4" xr:uid="{AA1DA99F-964B-4771-AB49-6364776623F7}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{BDC41AA5-CE49-4CAC-B5EF-340D1E748FD2}"/>
-    <hyperlink ref="H15" r:id="rId6" xr:uid="{B704C384-D0EF-4FA2-A81C-35EC1FBAA772}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{238123BE-6BCE-445F-AF48-3DAA58DAF9A9}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{401F4866-FA46-41A4-B14C-9CB6F53E91FA}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{DB0AA7E2-1CA4-4AAA-A9C9-8FF10B5F4826}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{AA1DA99F-964B-4771-AB49-6364776623F7}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{BDC41AA5-CE49-4CAC-B5EF-340D1E748FD2}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{B704C384-D0EF-4FA2-A81C-35EC1FBAA772}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{AEDA1DA1-0341-4525-AE02-6FF8BEF696C2}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{45ABE30B-B078-41B2-91A0-E9AFD77D7374}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{3BEA55DD-D757-4766-AC68-73969DC63F19}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{07BB8921-0C97-452C-A865-8979FF6B546B}"/>
+    <hyperlink ref="F7" r:id="rId10" display="password@12" xr:uid="{588DA0F5-B3F2-493B-BAA3-335C16DD7935}"/>
+    <hyperlink ref="P3" r:id="rId11" display="password@12" xr:uid="{4AE12363-CC7F-41CE-BAFA-9CCFA0167400}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/SystemMailTrackingProduction/Files/SystemEmails_Prod.xlsx
+++ b/SystemMailTrackingProduction/Files/SystemEmails_Prod.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B117DF4-C623-499E-886C-91F3A956CD3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B914AE7-B053-4CA6-AA5D-8311B390A4A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11964" windowHeight="4104" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -220,9 +220,6 @@
     <t>VerifyBroadcastMail</t>
   </si>
   <si>
-    <t>VerifyBroadcastEmailFromInbox</t>
-  </si>
-  <si>
     <t>xponoacc@gmail.com</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>rf123456!</t>
+  </si>
+  <si>
+    <t>testaccount</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>2</v>
@@ -897,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +967,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1367,130 +1367,87 @@
       <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="20" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="A38" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="C39" s="23" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D39" s="23"/>
-      <c r="E39" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D40" s="23"/>
       <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="A41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G26:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,7 +1531,7 @@
         <v>59</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="15"/>
     </row>
@@ -1595,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>27</v>
@@ -1625,7 +1582,7 @@
         <v>60</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="14"/>
     </row>
@@ -1659,7 +1616,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>41</v>
@@ -1679,7 +1636,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,7 +1661,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,7 +1672,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>41</v>
@@ -1724,7 +1681,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,22 +1730,22 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1847,7 +1804,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1870,7 +1827,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1881,16 +1838,16 @@
         <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
